--- a/model_pkl/app輸入模型資料.xlsx
+++ b/model_pkl/app輸入模型資料.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\testapp\model_pkl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002216D6-B977-47D7-8603-849FA0623CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91AFD3-D146-419B-8AEE-05E2ABFA929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10536" yWindow="0" windowWidth="11904" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI塑鉸預測" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,8 @@
     <t>θpc</t>
   </si>
   <si>
-    <t>Res</t>
+    <t>K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -96,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,7 +162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -466,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
